--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{206B0255-702E-474C-9699-87FFCB76858E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D74EB6-3EF7-4712-B1EC-557FD4992CBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
   <si>
     <t>Instruction</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Store</t>
   </si>
   <si>
-    <t>Copy(2)</t>
-  </si>
-  <si>
     <t>selDataOut</t>
   </si>
   <si>
@@ -338,6 +335,12 @@
   </si>
   <si>
     <t>Hexa</t>
+  </si>
+  <si>
+    <t>+ L</t>
+  </si>
+  <si>
+    <t>+ K</t>
   </si>
 </sst>
 </file>
@@ -373,18 +376,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD9DA5A-DB52-4BF8-8CF7-0B848F68A355}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +713,10 @@
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -725,26 +727,26 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>81</v>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="3"/>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -756,27 +758,27 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>82</v>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="5" t="str">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H2:J2))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -785,90 +787,90 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
-        <v>82</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K8" si="0">BIN2HEX(_xlfn.CONCAT(H3:J3))</f>
+        <v>75</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:K7" si="0">BIN2HEX(_xlfn.CONCAT(H3:J3))</f>
         <v>8</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="5" t="str">
+        <v>75</v>
+      </c>
+      <c r="K4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="3"/>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="3"/>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -876,31 +878,31 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="5" t="str">
+        <v>77</v>
+      </c>
+      <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="3"/>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -908,63 +910,63 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="5" t="str">
+        <v>78</v>
+      </c>
+      <c r="K7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="3"/>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="5" t="str">
+        <v>79</v>
+      </c>
+      <c r="K8" s="3" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H8:J8))</f>
         <v>44</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="3"/>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -975,34 +977,34 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
       <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="3">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K9" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H9,I9,"000"))</f>
         <v>80</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H9,I9,"100"))</f>
         <v>84</v>
       </c>
@@ -1015,34 +1017,34 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" ref="K10:K17" si="1">BIN2HEX(_xlfn.CONCAT(H10,I10,"000"))</f>
         <v>88</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="L10" t="str">
         <f t="shared" ref="L10:L17" si="2">BIN2HEX(_xlfn.CONCAT(H10,I10,"100"))</f>
         <v>8C</v>
       </c>
@@ -1055,34 +1057,34 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="6" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="L11" s="6" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -1095,34 +1097,34 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
       <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="L12" s="6" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="2"/>
         <v>9C</v>
       </c>
@@ -1135,34 +1137,34 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
       <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v>A0</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
         <v>A4</v>
       </c>
@@ -1175,25 +1177,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="6" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v>C0</v>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H14,I14,"001"))</f>
         <v>C1</v>
       </c>
@@ -1206,34 +1208,34 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v>C8</v>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="2"/>
         <v>CC</v>
       </c>
@@ -1246,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>84</v>
+      <c r="H16" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v>D0</v>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="2"/>
         <v>D4</v>
       </c>
@@ -1286,40 +1288,48 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
         <v>101</v>
       </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>84</v>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="6" t="str">
+        <v>86</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v>D8</v>
       </c>
-      <c r="L17" s="6" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="2"/>
         <v>DC</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K1:L1"/>
@@ -1328,14 +1338,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1343,45 +1345,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5BD5E-5DDE-43BD-AA8B-7B03110567C6}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1395,20 +1406,33 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(B2:I2)),"h")</f>
+        <v>0h</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1419,22 +1443,35 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(B3:I3)),"h")</f>
+        <v>1h</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1442,25 +1479,38 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>2h</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1468,27 +1518,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>3h</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1496,88 +1559,143 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>4h</v>
+      </c>
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>5h</v>
+      </c>
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>6h</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>7h</v>
+      </c>
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1588,19 +1706,32 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>8h</v>
+      </c>
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1609,70 +1740,109 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>9h</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>Ah</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bh</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1680,82 +1850,7373 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ch</v>
+      </c>
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Dh</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>Eh</v>
+      </c>
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>Fh</v>
+      </c>
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>10h</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>11h</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>12h</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>13h</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>14h</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>15h</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>16h</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>17h</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>18h</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>19h</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>1Ah</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>1Bh</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>1Ch</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>1Dh</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>1Eh</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>1Fh</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>20h</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>21h</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>22h</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>23h</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>24h</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>25h</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>26h</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>27h</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>28h</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>29h</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>2Ah</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>2Bh</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>2Ch</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>2Dh</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>2Eh</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>2Fh</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>30h</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>31h</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>32h</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>33h</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>34h</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>35h</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>36h</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>37h</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>38h</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>39h</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>3Ah</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>3Bh</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>3Ch</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>3Dh</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>3Eh</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>3Fh</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>40h</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="1">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(B67:I67)),"h")</f>
+        <v>41h</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>42h</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>43h</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>44h</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>45h</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>46h</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>47h</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>48h</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>49h</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>4Ah</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>4Bh</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>4Ch</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>4Dh</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>4Eh</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>4Fh</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>50h</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>51h</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>52h</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>53h</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>54h</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>55h</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>56h</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>57h</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>58h</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>59h</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>5Ah</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>5Bh</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>5Ch</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>5Dh</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>5Eh</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>5Fh</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>60h</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>61h</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>62h</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>63h</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>64h</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>65h</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>66h</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>67h</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>68h</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>69h</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="1"/>
+        <v>6Ah</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="1"/>
+        <v>6Bh</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="1"/>
+        <v>6Ch</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="1"/>
+        <v>6Dh</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="1"/>
+        <v>6Eh</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="1"/>
+        <v>6Fh</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="1"/>
+        <v>70h</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="1"/>
+        <v>71h</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="1"/>
+        <v>72h</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="1"/>
+        <v>73h</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="1"/>
+        <v>74h</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="1"/>
+        <v>75h</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="1"/>
+        <v>76h</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="1"/>
+        <v>77h</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="1"/>
+        <v>78h</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="1"/>
+        <v>79h</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="1"/>
+        <v>7Ah</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="1"/>
+        <v>7Bh</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="1"/>
+        <v>7Ch</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="1"/>
+        <v>7Dh</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="1"/>
+        <v>7Eh</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="1"/>
+        <v>7Fh</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="1"/>
+        <v>80h</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J194" si="2">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(B131:I131)),"h")</f>
+        <v>81h</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>82h</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>83h</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="2"/>
+        <v>84h</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="2"/>
+        <v>85h</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="2"/>
+        <v>86h</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="2"/>
+        <v>87h</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" si="2"/>
+        <v>88h</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="str">
+        <f t="shared" si="2"/>
+        <v>89h</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="2"/>
+        <v>8Ah</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="2"/>
+        <v>8Bh</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="2"/>
+        <v>8Ch</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="2"/>
+        <v>8Dh</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="2"/>
+        <v>8Eh</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="2"/>
+        <v>8Fh</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="2"/>
+        <v>90h</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="2"/>
+        <v>91h</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="2"/>
+        <v>92h</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="str">
+        <f t="shared" si="2"/>
+        <v>93h</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" si="2"/>
+        <v>94h</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="2"/>
+        <v>95h</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" si="2"/>
+        <v>96h</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="2"/>
+        <v>97h</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="2"/>
+        <v>98h</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="2"/>
+        <v>99h</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="2"/>
+        <v>9Ah</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="2"/>
+        <v>9Bh</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="str">
+        <f t="shared" si="2"/>
+        <v>9Ch</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" si="2"/>
+        <v>9Dh</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="str">
+        <f t="shared" si="2"/>
+        <v>9Eh</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" si="2"/>
+        <v>9Fh</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" si="2"/>
+        <v>A0h</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="str">
+        <f t="shared" si="2"/>
+        <v>A1h</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="str">
+        <f t="shared" si="2"/>
+        <v>A2h</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" si="2"/>
+        <v>A3h</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="str">
+        <f t="shared" si="2"/>
+        <v>A4h</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="str">
+        <f t="shared" si="2"/>
+        <v>A5h</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" si="2"/>
+        <v>A6h</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="2"/>
+        <v>A7h</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="2"/>
+        <v>A8h</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="2"/>
+        <v>A9h</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="2"/>
+        <v>AAh</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="2"/>
+        <v>ABh</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="2"/>
+        <v>ACh</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="2"/>
+        <v>ADh</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="2"/>
+        <v>AEh</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="2"/>
+        <v>AFh</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="str">
+        <f t="shared" si="2"/>
+        <v>B0h</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="str">
+        <f t="shared" si="2"/>
+        <v>B1h</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="str">
+        <f t="shared" si="2"/>
+        <v>B2h</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="str">
+        <f t="shared" si="2"/>
+        <v>B3h</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="str">
+        <f t="shared" si="2"/>
+        <v>B4h</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="str">
+        <f t="shared" si="2"/>
+        <v>B5h</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="str">
+        <f t="shared" si="2"/>
+        <v>B6h</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="str">
+        <f t="shared" si="2"/>
+        <v>B7h</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="str">
+        <f t="shared" si="2"/>
+        <v>B8h</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="str">
+        <f t="shared" si="2"/>
+        <v>B9h</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" si="2"/>
+        <v>BAh</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" si="2"/>
+        <v>BBh</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" si="2"/>
+        <v>BCh</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" si="2"/>
+        <v>BDh</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="2"/>
+        <v>BEh</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" si="2"/>
+        <v>BFh</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" si="2"/>
+        <v>C0h</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="str">
+        <f t="shared" ref="J195:J257" si="3">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(B195:I195)),"h")</f>
+        <v>C1h</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="str">
+        <f t="shared" si="3"/>
+        <v>C2h</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="str">
+        <f t="shared" si="3"/>
+        <v>C3h</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="str">
+        <f t="shared" si="3"/>
+        <v>C4h</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="str">
+        <f t="shared" si="3"/>
+        <v>C5h</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="str">
+        <f t="shared" si="3"/>
+        <v>C6h</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="str">
+        <f t="shared" si="3"/>
+        <v>C7h</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="str">
+        <f t="shared" si="3"/>
+        <v>C8h</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="str">
+        <f t="shared" si="3"/>
+        <v>C9h</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="str">
+        <f t="shared" si="3"/>
+        <v>CAh</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="str">
+        <f t="shared" si="3"/>
+        <v>CBh</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="str">
+        <f t="shared" si="3"/>
+        <v>CCh</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="str">
+        <f t="shared" si="3"/>
+        <v>CDh</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="str">
+        <f t="shared" si="3"/>
+        <v>CEh</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="str">
+        <f t="shared" si="3"/>
+        <v>CFh</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="str">
+        <f t="shared" si="3"/>
+        <v>D0h</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="str">
+        <f t="shared" si="3"/>
+        <v>D1h</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="str">
+        <f t="shared" si="3"/>
+        <v>D2h</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="str">
+        <f t="shared" si="3"/>
+        <v>D3h</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="str">
+        <f t="shared" si="3"/>
+        <v>D4h</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="str">
+        <f t="shared" si="3"/>
+        <v>D5h</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="str">
+        <f t="shared" si="3"/>
+        <v>D6h</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="str">
+        <f t="shared" si="3"/>
+        <v>D7h</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="str">
+        <f t="shared" si="3"/>
+        <v>D8h</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="str">
+        <f t="shared" si="3"/>
+        <v>D9h</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="str">
+        <f t="shared" si="3"/>
+        <v>DAh</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="str">
+        <f t="shared" si="3"/>
+        <v>DBh</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="str">
+        <f t="shared" si="3"/>
+        <v>DCh</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="str">
+        <f t="shared" si="3"/>
+        <v>DDh</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="str">
+        <f t="shared" si="3"/>
+        <v>DEh</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="str">
+        <f t="shared" si="3"/>
+        <v>DFh</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="str">
+        <f t="shared" si="3"/>
+        <v>E0h</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="str">
+        <f t="shared" si="3"/>
+        <v>E1h</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="str">
+        <f t="shared" si="3"/>
+        <v>E2h</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="str">
+        <f t="shared" si="3"/>
+        <v>E3h</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="str">
+        <f t="shared" si="3"/>
+        <v>E4h</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="str">
+        <f t="shared" si="3"/>
+        <v>E5h</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="str">
+        <f t="shared" si="3"/>
+        <v>E6h</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="str">
+        <f t="shared" si="3"/>
+        <v>E7h</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="str">
+        <f t="shared" si="3"/>
+        <v>E8h</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="str">
+        <f t="shared" si="3"/>
+        <v>E9h</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" t="str">
+        <f t="shared" si="3"/>
+        <v>EAh</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="str">
+        <f t="shared" si="3"/>
+        <v>EBh</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="str">
+        <f t="shared" si="3"/>
+        <v>ECh</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="str">
+        <f t="shared" si="3"/>
+        <v>EDh</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="str">
+        <f t="shared" si="3"/>
+        <v>EEh</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="str">
+        <f t="shared" si="3"/>
+        <v>EFh</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="str">
+        <f t="shared" si="3"/>
+        <v>F0h</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="str">
+        <f t="shared" si="3"/>
+        <v>F1h</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244" t="str">
+        <f t="shared" si="3"/>
+        <v>F2h</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="str">
+        <f t="shared" si="3"/>
+        <v>F3h</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="str">
+        <f t="shared" si="3"/>
+        <v>F4h</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="str">
+        <f t="shared" si="3"/>
+        <v>F5h</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248" t="str">
+        <f t="shared" si="3"/>
+        <v>F6h</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="str">
+        <f t="shared" si="3"/>
+        <v>F7h</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250" t="str">
+        <f t="shared" si="3"/>
+        <v>F8h</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="str">
+        <f t="shared" si="3"/>
+        <v>F9h</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252" t="str">
+        <f t="shared" si="3"/>
+        <v>FAh</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253" t="str">
+        <f t="shared" si="3"/>
+        <v>FBh</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254" t="str">
+        <f t="shared" si="3"/>
+        <v>FCh</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="str">
+        <f t="shared" si="3"/>
+        <v>FDh</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256" t="str">
+        <f t="shared" si="3"/>
+        <v>FEh</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="str">
+        <f t="shared" si="3"/>
+        <v>FFh</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D74EB6-3EF7-4712-B1EC-557FD4992CBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A248C41D-FFE5-4320-AA4F-0D314989BFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
   <si>
     <t>Instruction</t>
   </si>
@@ -337,10 +337,136 @@
     <t>Hexa</t>
   </si>
   <si>
-    <t>+ L</t>
-  </si>
-  <si>
-    <t>+ K</t>
+    <t>+ loading</t>
+  </si>
+  <si>
+    <t>+ keeping</t>
+  </si>
+  <si>
+    <t>+ storing</t>
+  </si>
+  <si>
+    <t>+ copying</t>
+  </si>
+  <si>
+    <t>+ assigning</t>
+  </si>
+  <si>
+    <t>- keeping</t>
+  </si>
+  <si>
+    <t>- loading</t>
+  </si>
+  <si>
+    <t>- storing</t>
+  </si>
+  <si>
+    <t>- copying</t>
+  </si>
+  <si>
+    <t>- assigning</t>
+  </si>
+  <si>
+    <t>- nop</t>
+  </si>
+  <si>
+    <t>. halt</t>
+  </si>
+  <si>
+    <t>* loading</t>
+  </si>
+  <si>
+    <t>* keeping</t>
+  </si>
+  <si>
+    <t>* storing</t>
+  </si>
+  <si>
+    <t>* copying</t>
+  </si>
+  <si>
+    <t>* assigning</t>
+  </si>
+  <si>
+    <t>/ loading</t>
+  </si>
+  <si>
+    <t>/ keeping</t>
+  </si>
+  <si>
+    <t>/ storing</t>
+  </si>
+  <si>
+    <t>/ copying</t>
+  </si>
+  <si>
+    <t>/ assigning</t>
+  </si>
+  <si>
+    <t>% loading</t>
+  </si>
+  <si>
+    <t>% keeping</t>
+  </si>
+  <si>
+    <t>% storing</t>
+  </si>
+  <si>
+    <t>% copying</t>
+  </si>
+  <si>
+    <t>% assigning</t>
+  </si>
+  <si>
+    <t>not storing</t>
+  </si>
+  <si>
+    <t>not keeping</t>
+  </si>
+  <si>
+    <t>and loading</t>
+  </si>
+  <si>
+    <t>and keeping</t>
+  </si>
+  <si>
+    <t>and storing</t>
+  </si>
+  <si>
+    <t>and copying</t>
+  </si>
+  <si>
+    <t>and assigning</t>
+  </si>
+  <si>
+    <t>or loading</t>
+  </si>
+  <si>
+    <t>or keeping</t>
+  </si>
+  <si>
+    <t>or storing</t>
+  </si>
+  <si>
+    <t>or copying</t>
+  </si>
+  <si>
+    <t>or assigning</t>
+  </si>
+  <si>
+    <t>xor loading</t>
+  </si>
+  <si>
+    <t>xor keeping</t>
+  </si>
+  <si>
+    <t>xor storing</t>
+  </si>
+  <si>
+    <t>xor copying</t>
+  </si>
+  <si>
+    <t>xor assigning</t>
   </si>
 </sst>
 </file>
@@ -382,11 +508,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD9DA5A-DB52-4BF8-8CF7-0B848F68A355}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,10 +869,10 @@
       <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="5"/>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -774,11 +900,11 @@
       <c r="J2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="5" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H2:J2))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -803,11 +929,11 @@
       <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="5" t="str">
         <f t="shared" ref="K3:K7" si="0">BIN2HEX(_xlfn.CONCAT(H3:J3))</f>
         <v>8</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -832,11 +958,11 @@
       <c r="J4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="5"/>
       <c r="P4" t="s">
         <v>43</v>
       </c>
@@ -864,11 +990,11 @@
       <c r="J5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="5"/>
       <c r="P5" t="s">
         <v>41</v>
       </c>
@@ -896,11 +1022,11 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="5"/>
       <c r="P6" t="s">
         <v>42</v>
       </c>
@@ -928,11 +1054,11 @@
       <c r="J7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="5"/>
       <c r="P7" t="s">
         <v>44</v>
       </c>
@@ -960,11 +1086,11 @@
       <c r="J8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="5" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H8:J8))</f>
         <v>44</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="5"/>
       <c r="P8" t="s">
         <v>62</v>
       </c>
@@ -1322,6 +1448,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
@@ -1330,14 +1464,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1347,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5BD5E-5DDE-43BD-AA8B-7B03110567C6}">
   <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,8 +1517,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+      <c r="A2" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1431,6 +1557,9 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -1691,8 +1820,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
+      <c r="A10" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5360,7 +5489,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B130">
@@ -5393,7 +5522,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B131">
@@ -5426,8 +5555,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>2</v>
+      <c r="A132" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5459,8 +5588,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2</v>
+      <c r="A133" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -5492,8 +5621,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>2</v>
+      <c r="A134" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5615,6 +5744,9 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="B138">
         <v>1</v>
       </c>
@@ -5645,6 +5777,9 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B139">
         <v>1</v>
       </c>
@@ -5675,6 +5810,9 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="B140">
         <v>1</v>
       </c>
@@ -5705,6 +5843,9 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="B141">
         <v>1</v>
       </c>
@@ -5735,6 +5876,9 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="B142">
         <v>1</v>
       </c>
@@ -5824,7 +5968,7 @@
         <v>8Eh</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>1</v>
       </c>
@@ -5854,7 +5998,10 @@
         <v>8Fh</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="B146">
         <v>1</v>
       </c>
@@ -5884,7 +6031,10 @@
         <v>90h</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B147">
         <v>1</v>
       </c>
@@ -5914,7 +6064,10 @@
         <v>91h</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="B148">
         <v>1</v>
       </c>
@@ -5944,7 +6097,10 @@
         <v>92h</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="B149">
         <v>1</v>
       </c>
@@ -5974,7 +6130,10 @@
         <v>93h</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="B150">
         <v>1</v>
       </c>
@@ -6004,7 +6163,7 @@
         <v>94h</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1</v>
       </c>
@@ -6034,7 +6193,7 @@
         <v>95h</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>1</v>
       </c>
@@ -6064,7 +6223,7 @@
         <v>96h</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>1</v>
       </c>
@@ -6094,7 +6253,10 @@
         <v>97h</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="B154">
         <v>1</v>
       </c>
@@ -6124,7 +6286,10 @@
         <v>98h</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="B155">
         <v>1</v>
       </c>
@@ -6154,7 +6319,10 @@
         <v>99h</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B156">
         <v>1</v>
       </c>
@@ -6184,7 +6352,10 @@
         <v>9Ah</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="B157">
         <v>1</v>
       </c>
@@ -6214,7 +6385,10 @@
         <v>9Bh</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="B158">
         <v>1</v>
       </c>
@@ -6244,7 +6418,7 @@
         <v>9Ch</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>1</v>
       </c>
@@ -6274,7 +6448,7 @@
         <v>9Dh</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>1</v>
       </c>
@@ -6304,7 +6478,7 @@
         <v>9Eh</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>1</v>
       </c>
@@ -6334,7 +6508,10 @@
         <v>9Fh</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="B162">
         <v>1</v>
       </c>
@@ -6364,7 +6541,10 @@
         <v>A0h</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="B163">
         <v>1</v>
       </c>
@@ -6394,7 +6574,10 @@
         <v>A1h</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="B164">
         <v>1</v>
       </c>
@@ -6424,7 +6607,10 @@
         <v>A2h</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="B165">
         <v>1</v>
       </c>
@@ -6454,7 +6640,10 @@
         <v>A3h</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B166">
         <v>1</v>
       </c>
@@ -6484,7 +6673,7 @@
         <v>A4h</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>1</v>
       </c>
@@ -6514,7 +6703,7 @@
         <v>A5h</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>1</v>
       </c>
@@ -6544,7 +6733,7 @@
         <v>A6h</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>1</v>
       </c>
@@ -6574,7 +6763,7 @@
         <v>A7h</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>1</v>
       </c>
@@ -6604,7 +6793,7 @@
         <v>A8h</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>1</v>
       </c>
@@ -6634,7 +6823,7 @@
         <v>A9h</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>1</v>
       </c>
@@ -6664,7 +6853,7 @@
         <v>AAh</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>1</v>
       </c>
@@ -6694,7 +6883,7 @@
         <v>ABh</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>1</v>
       </c>
@@ -6724,7 +6913,7 @@
         <v>ACh</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>1</v>
       </c>
@@ -6754,7 +6943,7 @@
         <v>ADh</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>1</v>
       </c>
@@ -7264,7 +7453,7 @@
         <v>BEh</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>1</v>
       </c>
@@ -7294,7 +7483,10 @@
         <v>BFh</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>131</v>
+      </c>
       <c r="B194">
         <v>1</v>
       </c>
@@ -7324,7 +7516,10 @@
         <v>C0h</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>130</v>
+      </c>
       <c r="B195">
         <v>1</v>
       </c>
@@ -7354,7 +7549,7 @@
         <v>C1h</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>1</v>
       </c>
@@ -7384,7 +7579,7 @@
         <v>C2h</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>1</v>
       </c>
@@ -7414,7 +7609,7 @@
         <v>C3h</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>1</v>
       </c>
@@ -7444,7 +7639,7 @@
         <v>C4h</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>1</v>
       </c>
@@ -7474,7 +7669,7 @@
         <v>C5h</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>1</v>
       </c>
@@ -7504,7 +7699,7 @@
         <v>C6h</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>1</v>
       </c>
@@ -7534,7 +7729,10 @@
         <v>C7h</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="B202">
         <v>1</v>
       </c>
@@ -7564,7 +7762,10 @@
         <v>C8h</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="B203">
         <v>1</v>
       </c>
@@ -7594,7 +7795,10 @@
         <v>C9h</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="B204">
         <v>1</v>
       </c>
@@ -7624,7 +7828,10 @@
         <v>CAh</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="B205">
         <v>1</v>
       </c>
@@ -7654,7 +7861,10 @@
         <v>CBh</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="B206">
         <v>1</v>
       </c>
@@ -7684,7 +7894,7 @@
         <v>CCh</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>1</v>
       </c>
@@ -7714,7 +7924,7 @@
         <v>CDh</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>1</v>
       </c>
@@ -7744,7 +7954,7 @@
         <v>CEh</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>1</v>
       </c>
@@ -7774,7 +7984,10 @@
         <v>CFh</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B210">
         <v>1</v>
       </c>
@@ -7804,7 +8017,10 @@
         <v>D0h</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="B211">
         <v>1</v>
       </c>
@@ -7834,7 +8050,10 @@
         <v>D1h</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="B212">
         <v>1</v>
       </c>
@@ -7864,7 +8083,10 @@
         <v>D2h</v>
       </c>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="B213">
         <v>1</v>
       </c>
@@ -7894,7 +8116,10 @@
         <v>D3h</v>
       </c>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B214">
         <v>1</v>
       </c>
@@ -7924,7 +8149,7 @@
         <v>D4h</v>
       </c>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>1</v>
       </c>
@@ -7954,7 +8179,7 @@
         <v>D5h</v>
       </c>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>1</v>
       </c>
@@ -7984,7 +8209,7 @@
         <v>D6h</v>
       </c>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>1</v>
       </c>
@@ -8014,7 +8239,10 @@
         <v>D7h</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="B218">
         <v>1</v>
       </c>
@@ -8044,7 +8272,10 @@
         <v>D8h</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="B219">
         <v>1</v>
       </c>
@@ -8074,7 +8305,10 @@
         <v>D9h</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="B220">
         <v>1</v>
       </c>
@@ -8104,7 +8338,10 @@
         <v>DAh</v>
       </c>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="B221">
         <v>1</v>
       </c>
@@ -8134,7 +8371,10 @@
         <v>DBh</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="B222">
         <v>1</v>
       </c>
@@ -8164,7 +8404,7 @@
         <v>DCh</v>
       </c>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>1</v>
       </c>
@@ -8194,7 +8434,7 @@
         <v>DDh</v>
       </c>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>1</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952DBC38-F8E9-4CD9-8D64-E6ABCF49C555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432762D5-3AE5-42DA-B03A-A6711F7FC830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="184">
   <si>
     <t>Instruction</t>
   </si>
@@ -528,16 +528,73 @@
   </si>
   <si>
     <t>selDataIn (1)</t>
+  </si>
+  <si>
+    <t>Signal3</t>
+  </si>
+  <si>
+    <t>Signal4</t>
+  </si>
+  <si>
+    <t>Signal5</t>
+  </si>
+  <si>
+    <t>Signal6</t>
+  </si>
+  <si>
+    <t>Signal7</t>
+  </si>
+  <si>
+    <t>Propósito geral</t>
+  </si>
+  <si>
+    <t>Gerenciamento de memória</t>
+  </si>
+  <si>
+    <t>Parâmetros de uma subrotina</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>returnB</t>
+  </si>
+  <si>
+    <t>returnC</t>
+  </si>
+  <si>
+    <t>returnD</t>
+  </si>
+  <si>
+    <t>Operações aritméticas</t>
+  </si>
+  <si>
+    <t>Retorno de uma subrotina</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Registrador que guarda o endereço da rotina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,17 +620,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,7 +949,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,13 +972,13 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
         <v>78</v>
       </c>
@@ -930,10 +988,10 @@
       <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="5"/>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -945,13 +1003,13 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
         <v>79</v>
       </c>
@@ -961,11 +1019,11 @@
       <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" s="5" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H2:J2))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -974,13 +1032,13 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
@@ -990,11 +1048,11 @@
       <c r="J3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="5" t="str">
         <f t="shared" ref="K3:K7" si="0">BIN2HEX(_xlfn.CONCAT(H3:J3))</f>
         <v>8</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1003,13 +1061,13 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1019,11 +1077,11 @@
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="K4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="5"/>
       <c r="P4" t="s">
         <v>41</v>
       </c>
@@ -1035,13 +1093,13 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1051,11 +1109,11 @@
       <c r="J5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="K5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="P5" t="s">
         <v>39</v>
       </c>
@@ -1067,13 +1125,13 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1083,11 +1141,11 @@
       <c r="J6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="P6" t="s">
         <v>40</v>
       </c>
@@ -1099,13 +1157,13 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1115,11 +1173,11 @@
       <c r="J7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="P7" t="s">
         <v>42</v>
       </c>
@@ -1131,13 +1189,13 @@
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1147,11 +1205,11 @@
       <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="5" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H8:J8))</f>
         <v>44</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="P8" t="s">
         <v>60</v>
       </c>
@@ -1509,6 +1567,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
@@ -1517,14 +1583,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1533,11 +1591,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5BD5E-5DDE-43BD-AA8B-7B03110567C6}">
-  <dimension ref="A1:S257"/>
+  <dimension ref="A1:T257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,21 +1606,21 @@
     <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" t="s">
         <v>100</v>
       </c>
@@ -1573,16 +1631,31 @@
         <v>29</v>
       </c>
       <c r="M1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T1" t="s">
         <v>165</v>
       </c>
-      <c r="N1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1698,8 +1774,11 @@
       <c r="S3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1755,8 +1834,11 @@
       <c r="S4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1812,8 +1894,11 @@
       <c r="S5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1869,8 +1954,11 @@
       <c r="S6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1926,8 +2014,11 @@
       <c r="S7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1983,8 +2074,11 @@
       <c r="S8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2040,8 +2134,11 @@
       <c r="S9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>112</v>
       </c>
@@ -2100,8 +2197,11 @@
       <c r="S10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2157,8 +2257,11 @@
       <c r="S11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -2214,8 +2317,11 @@
       <c r="S12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2271,8 +2377,11 @@
       <c r="S13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -2328,8 +2437,11 @@
       <c r="S14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -2385,8 +2497,11 @@
       <c r="S15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2442,8 +2557,11 @@
       <c r="S16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2499,8 +2617,11 @@
       <c r="S17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2556,8 +2677,11 @@
       <c r="S18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -2613,8 +2737,11 @@
       <c r="S19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0</v>
       </c>
@@ -2670,8 +2797,11 @@
       <c r="S20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2727,8 +2857,11 @@
       <c r="S21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2784,8 +2917,11 @@
       <c r="S22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -2841,8 +2977,11 @@
       <c r="S23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2898,8 +3037,11 @@
       <c r="S24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2955,8 +3097,11 @@
       <c r="S25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0</v>
       </c>
@@ -3012,8 +3157,11 @@
       <c r="S26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="S27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="S28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0</v>
       </c>
@@ -3183,8 +3337,11 @@
       <c r="S29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0</v>
       </c>
@@ -3240,8 +3397,11 @@
       <c r="S30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
@@ -3297,8 +3457,11 @@
       <c r="S31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
@@ -3354,8 +3517,11 @@
       <c r="S32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
@@ -3411,8 +3577,11 @@
       <c r="S33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0</v>
       </c>
@@ -3468,8 +3637,11 @@
       <c r="S34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -3525,8 +3697,11 @@
       <c r="S35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0</v>
       </c>
@@ -3582,8 +3757,11 @@
       <c r="S36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0</v>
       </c>
@@ -3639,8 +3817,11 @@
       <c r="S37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0</v>
       </c>
@@ -3696,8 +3877,11 @@
       <c r="S38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0</v>
       </c>
@@ -3753,8 +3937,11 @@
       <c r="S39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0</v>
       </c>
@@ -3810,8 +3997,11 @@
       <c r="S40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0</v>
       </c>
@@ -3867,8 +4057,11 @@
       <c r="S41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
@@ -3924,8 +4117,11 @@
       <c r="S42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0</v>
       </c>
@@ -3981,8 +4177,11 @@
       <c r="S43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0</v>
       </c>
@@ -4038,8 +4237,11 @@
       <c r="S44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0</v>
       </c>
@@ -4095,8 +4297,11 @@
       <c r="S45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
@@ -4152,8 +4357,11 @@
       <c r="S46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0</v>
       </c>
@@ -4209,8 +4417,11 @@
       <c r="S47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0</v>
       </c>
@@ -4266,8 +4477,11 @@
       <c r="S48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0</v>
       </c>
@@ -4323,8 +4537,11 @@
       <c r="S49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0</v>
       </c>
@@ -4380,8 +4597,11 @@
       <c r="S50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0</v>
       </c>
@@ -4437,8 +4657,11 @@
       <c r="S51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="S52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0</v>
       </c>
@@ -4551,8 +4777,11 @@
       <c r="S53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0</v>
       </c>
@@ -4608,8 +4837,11 @@
       <c r="S54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0</v>
       </c>
@@ -4665,8 +4897,11 @@
       <c r="S55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0</v>
       </c>
@@ -4722,8 +4957,11 @@
       <c r="S56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0</v>
       </c>
@@ -4779,8 +5017,11 @@
       <c r="S57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0</v>
       </c>
@@ -4836,8 +5077,11 @@
       <c r="S58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0</v>
       </c>
@@ -4893,8 +5137,11 @@
       <c r="S59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0</v>
       </c>
@@ -4950,8 +5197,11 @@
       <c r="S60" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0</v>
       </c>
@@ -5007,8 +5257,11 @@
       <c r="S61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0</v>
       </c>
@@ -5064,8 +5317,11 @@
       <c r="S62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0</v>
       </c>
@@ -5121,8 +5377,11 @@
       <c r="S63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0</v>
       </c>
@@ -5178,8 +5437,11 @@
       <c r="S64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0</v>
       </c>
@@ -5235,8 +5497,11 @@
       <c r="S65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -5295,8 +5560,11 @@
       <c r="S66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -5355,8 +5623,11 @@
       <c r="S67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -5415,8 +5686,11 @@
       <c r="S68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -5475,8 +5749,11 @@
       <c r="S69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -5514,11 +5791,11 @@
       <c r="L70">
         <v>1</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
+      <c r="M70" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" t="s">
+        <v>13</v>
       </c>
       <c r="O70" t="s">
         <v>13</v>
@@ -5532,11 +5809,14 @@
       <c r="R70" t="s">
         <v>13</v>
       </c>
-      <c r="S70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0</v>
       </c>
@@ -5592,8 +5872,11 @@
       <c r="S71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0</v>
       </c>
@@ -5649,8 +5932,11 @@
       <c r="S72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0</v>
       </c>
@@ -5706,8 +5992,11 @@
       <c r="S73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0</v>
       </c>
@@ -5763,8 +6052,11 @@
       <c r="S74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0</v>
       </c>
@@ -5820,8 +6112,11 @@
       <c r="S75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
@@ -5877,8 +6172,11 @@
       <c r="S76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0</v>
       </c>
@@ -5934,8 +6232,11 @@
       <c r="S77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0</v>
       </c>
@@ -5991,8 +6292,11 @@
       <c r="S78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -6048,8 +6352,11 @@
       <c r="S79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0</v>
       </c>
@@ -6105,8 +6412,11 @@
       <c r="S80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0</v>
       </c>
@@ -6162,8 +6472,11 @@
       <c r="S81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0</v>
       </c>
@@ -6219,8 +6532,11 @@
       <c r="S82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0</v>
       </c>
@@ -6276,8 +6592,11 @@
       <c r="S83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0</v>
       </c>
@@ -6333,8 +6652,11 @@
       <c r="S84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0</v>
       </c>
@@ -6390,8 +6712,11 @@
       <c r="S85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0</v>
       </c>
@@ -6447,8 +6772,11 @@
       <c r="S86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0</v>
       </c>
@@ -6504,8 +6832,11 @@
       <c r="S87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0</v>
       </c>
@@ -6561,8 +6892,11 @@
       <c r="S88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0</v>
       </c>
@@ -6618,8 +6952,11 @@
       <c r="S89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0</v>
       </c>
@@ -6675,8 +7012,11 @@
       <c r="S90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0</v>
       </c>
@@ -6732,8 +7072,11 @@
       <c r="S91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0</v>
       </c>
@@ -6789,8 +7132,11 @@
       <c r="S92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0</v>
       </c>
@@ -6846,8 +7192,11 @@
       <c r="S93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
@@ -6903,8 +7252,11 @@
       <c r="S94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0</v>
       </c>
@@ -6960,8 +7312,11 @@
       <c r="S95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0</v>
       </c>
@@ -7017,8 +7372,11 @@
       <c r="S96" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0</v>
       </c>
@@ -7074,8 +7432,11 @@
       <c r="S97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0</v>
       </c>
@@ -7131,8 +7492,11 @@
       <c r="S98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0</v>
       </c>
@@ -7188,8 +7552,11 @@
       <c r="S99" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0</v>
       </c>
@@ -7245,8 +7612,11 @@
       <c r="S100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -7302,8 +7672,11 @@
       <c r="S101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0</v>
       </c>
@@ -7359,8 +7732,11 @@
       <c r="S102" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0</v>
       </c>
@@ -7416,8 +7792,11 @@
       <c r="S103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0</v>
       </c>
@@ -7473,8 +7852,11 @@
       <c r="S104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>0</v>
       </c>
@@ -7530,8 +7912,11 @@
       <c r="S105" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>0</v>
       </c>
@@ -7587,8 +7972,11 @@
       <c r="S106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>0</v>
       </c>
@@ -7644,8 +8032,11 @@
       <c r="S107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0</v>
       </c>
@@ -7701,8 +8092,11 @@
       <c r="S108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>0</v>
       </c>
@@ -7758,8 +8152,11 @@
       <c r="S109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
@@ -7815,8 +8212,11 @@
       <c r="S110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>0</v>
       </c>
@@ -7872,8 +8272,11 @@
       <c r="S111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0</v>
       </c>
@@ -7929,8 +8332,11 @@
       <c r="S112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>0</v>
       </c>
@@ -7986,8 +8392,11 @@
       <c r="S113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>0</v>
       </c>
@@ -8043,8 +8452,11 @@
       <c r="S114" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>0</v>
       </c>
@@ -8100,8 +8512,11 @@
       <c r="S115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0</v>
       </c>
@@ -8157,8 +8572,11 @@
       <c r="S116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0</v>
       </c>
@@ -8214,8 +8632,11 @@
       <c r="S117" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>0</v>
       </c>
@@ -8271,8 +8692,11 @@
       <c r="S118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>0</v>
       </c>
@@ -8328,8 +8752,11 @@
       <c r="S119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>0</v>
       </c>
@@ -8385,8 +8812,11 @@
       <c r="S120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>0</v>
       </c>
@@ -8442,8 +8872,11 @@
       <c r="S121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>0</v>
       </c>
@@ -8499,8 +8932,11 @@
       <c r="S122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>0</v>
       </c>
@@ -8556,8 +8992,11 @@
       <c r="S123" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>0</v>
       </c>
@@ -8613,8 +9052,11 @@
       <c r="S124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>0</v>
       </c>
@@ -8670,8 +9112,11 @@
       <c r="S125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>0</v>
       </c>
@@ -8727,8 +9172,11 @@
       <c r="S126" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>0</v>
       </c>
@@ -8784,8 +9232,11 @@
       <c r="S127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>0</v>
       </c>
@@ -8841,8 +9292,11 @@
       <c r="S128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>0</v>
       </c>
@@ -8898,8 +9352,11 @@
       <c r="S129" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>101</v>
       </c>
@@ -8958,8 +9415,11 @@
       <c r="S130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>102</v>
       </c>
@@ -9018,8 +9478,11 @@
       <c r="S131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>103</v>
       </c>
@@ -9078,8 +9541,11 @@
       <c r="S132" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>104</v>
       </c>
@@ -9138,8 +9604,11 @@
       <c r="S133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>105</v>
       </c>
@@ -9198,8 +9667,11 @@
       <c r="S134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>1</v>
       </c>
@@ -9255,8 +9727,11 @@
       <c r="S135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>1</v>
       </c>
@@ -9312,8 +9787,11 @@
       <c r="S136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>1</v>
       </c>
@@ -9369,8 +9847,11 @@
       <c r="S137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>107</v>
       </c>
@@ -9429,8 +9910,11 @@
       <c r="S138" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>106</v>
       </c>
@@ -9489,8 +9973,11 @@
       <c r="S139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>108</v>
       </c>
@@ -9549,8 +10036,11 @@
       <c r="S140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>109</v>
       </c>
@@ -9609,8 +10099,11 @@
       <c r="S141" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>110</v>
       </c>
@@ -9669,8 +10162,11 @@
       <c r="S142" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>1</v>
       </c>
@@ -9726,8 +10222,11 @@
       <c r="S143" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>1</v>
       </c>
@@ -9783,8 +10282,11 @@
       <c r="S144" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>1</v>
       </c>
@@ -9840,8 +10342,11 @@
       <c r="S145" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>113</v>
       </c>
@@ -9900,8 +10405,11 @@
       <c r="S146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>114</v>
       </c>
@@ -9960,8 +10468,11 @@
       <c r="S147" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>115</v>
       </c>
@@ -10020,8 +10531,11 @@
       <c r="S148" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>116</v>
       </c>
@@ -10080,8 +10594,11 @@
       <c r="S149" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>117</v>
       </c>
@@ -10140,8 +10657,11 @@
       <c r="S150" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1</v>
       </c>
@@ -10197,8 +10717,11 @@
       <c r="S151" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>1</v>
       </c>
@@ -10254,8 +10777,11 @@
       <c r="S152" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>1</v>
       </c>
@@ -10311,8 +10837,11 @@
       <c r="S153" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>118</v>
       </c>
@@ -10371,8 +10900,11 @@
       <c r="S154" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
@@ -10431,8 +10963,11 @@
       <c r="S155" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>120</v>
       </c>
@@ -10491,8 +11026,11 @@
       <c r="S156" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>121</v>
       </c>
@@ -10551,8 +11089,11 @@
       <c r="S157" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>122</v>
       </c>
@@ -10611,8 +11152,11 @@
       <c r="S158" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>1</v>
       </c>
@@ -10668,8 +11212,11 @@
       <c r="S159" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>1</v>
       </c>
@@ -10725,8 +11272,11 @@
       <c r="S160" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>1</v>
       </c>
@@ -10782,8 +11332,11 @@
       <c r="S161" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>123</v>
       </c>
@@ -10842,8 +11395,11 @@
       <c r="S162" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>124</v>
       </c>
@@ -10902,8 +11458,11 @@
       <c r="S163" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>125</v>
       </c>
@@ -10962,8 +11521,11 @@
       <c r="S164" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>126</v>
       </c>
@@ -11022,8 +11584,11 @@
       <c r="S165" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>127</v>
       </c>
@@ -11082,8 +11647,11 @@
       <c r="S166" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>1</v>
       </c>
@@ -11139,8 +11707,11 @@
       <c r="S167" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>1</v>
       </c>
@@ -11196,8 +11767,11 @@
       <c r="S168" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>1</v>
       </c>
@@ -11253,8 +11827,11 @@
       <c r="S169" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>1</v>
       </c>
@@ -11310,8 +11887,11 @@
       <c r="S170" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>1</v>
       </c>
@@ -11367,8 +11947,11 @@
       <c r="S171" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>1</v>
       </c>
@@ -11424,8 +12007,11 @@
       <c r="S172" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>1</v>
       </c>
@@ -11481,8 +12067,11 @@
       <c r="S173" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>1</v>
       </c>
@@ -11538,8 +12127,11 @@
       <c r="S174" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>1</v>
       </c>
@@ -11595,8 +12187,11 @@
       <c r="S175" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>1</v>
       </c>
@@ -11652,8 +12247,11 @@
       <c r="S176" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="177" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>1</v>
       </c>
@@ -11709,8 +12307,11 @@
       <c r="S177" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>1</v>
       </c>
@@ -11766,8 +12367,11 @@
       <c r="S178" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>1</v>
       </c>
@@ -11823,8 +12427,11 @@
       <c r="S179" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>1</v>
       </c>
@@ -11880,8 +12487,11 @@
       <c r="S180" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>1</v>
       </c>
@@ -11937,8 +12547,11 @@
       <c r="S181" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>1</v>
       </c>
@@ -11994,8 +12607,11 @@
       <c r="S182" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="183" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>1</v>
       </c>
@@ -12051,8 +12667,11 @@
       <c r="S183" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>1</v>
       </c>
@@ -12108,8 +12727,11 @@
       <c r="S184" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>1</v>
       </c>
@@ -12165,8 +12787,11 @@
       <c r="S185" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>1</v>
       </c>
@@ -12222,8 +12847,11 @@
       <c r="S186" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="187" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>1</v>
       </c>
@@ -12279,8 +12907,11 @@
       <c r="S187" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="188" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>1</v>
       </c>
@@ -12336,8 +12967,11 @@
       <c r="S188" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="189" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>1</v>
       </c>
@@ -12393,8 +13027,11 @@
       <c r="S189" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="190" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>1</v>
       </c>
@@ -12450,8 +13087,11 @@
       <c r="S190" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>1</v>
       </c>
@@ -12507,8 +13147,11 @@
       <c r="S191" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>1</v>
       </c>
@@ -12564,8 +13207,11 @@
       <c r="S192" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>1</v>
       </c>
@@ -12621,8 +13267,11 @@
       <c r="S193" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>129</v>
       </c>
@@ -12681,8 +13330,11 @@
       <c r="S194" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>128</v>
       </c>
@@ -12741,8 +13393,11 @@
       <c r="S195" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>1</v>
       </c>
@@ -12798,8 +13453,11 @@
       <c r="S196" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>1</v>
       </c>
@@ -12855,8 +13513,11 @@
       <c r="S197" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>1</v>
       </c>
@@ -12912,8 +13573,11 @@
       <c r="S198" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>1</v>
       </c>
@@ -12969,8 +13633,11 @@
       <c r="S199" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>1</v>
       </c>
@@ -13026,8 +13693,11 @@
       <c r="S200" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>1</v>
       </c>
@@ -13083,8 +13753,11 @@
       <c r="S201" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>130</v>
       </c>
@@ -13143,8 +13816,11 @@
       <c r="S202" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>131</v>
       </c>
@@ -13203,8 +13879,11 @@
       <c r="S203" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>132</v>
       </c>
@@ -13263,8 +13942,11 @@
       <c r="S204" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>133</v>
       </c>
@@ -13323,8 +14005,11 @@
       <c r="S205" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>134</v>
       </c>
@@ -13383,8 +14068,11 @@
       <c r="S206" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>1</v>
       </c>
@@ -13440,8 +14128,11 @@
       <c r="S207" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>1</v>
       </c>
@@ -13497,8 +14188,11 @@
       <c r="S208" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>1</v>
       </c>
@@ -13554,8 +14248,11 @@
       <c r="S209" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>135</v>
       </c>
@@ -13614,8 +14311,11 @@
       <c r="S210" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>136</v>
       </c>
@@ -13674,8 +14374,11 @@
       <c r="S211" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>137</v>
       </c>
@@ -13734,8 +14437,11 @@
       <c r="S212" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>138</v>
       </c>
@@ -13794,8 +14500,11 @@
       <c r="S213" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>139</v>
       </c>
@@ -13854,8 +14563,11 @@
       <c r="S214" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>1</v>
       </c>
@@ -13911,8 +14623,11 @@
       <c r="S215" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>1</v>
       </c>
@@ -13968,8 +14683,11 @@
       <c r="S216" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>1</v>
       </c>
@@ -14025,8 +14743,11 @@
       <c r="S217" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>140</v>
       </c>
@@ -14085,8 +14806,11 @@
       <c r="S218" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>141</v>
       </c>
@@ -14145,8 +14869,11 @@
       <c r="S219" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>142</v>
       </c>
@@ -14205,8 +14932,11 @@
       <c r="S220" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>143</v>
       </c>
@@ -14265,8 +14995,11 @@
       <c r="S221" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>144</v>
       </c>
@@ -14325,8 +15058,11 @@
       <c r="S222" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>1</v>
       </c>
@@ -14382,8 +15118,11 @@
       <c r="S223" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>1</v>
       </c>
@@ -14439,8 +15178,11 @@
       <c r="S224" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="225" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>1</v>
       </c>
@@ -14496,8 +15238,11 @@
       <c r="S225" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>1</v>
       </c>
@@ -14553,8 +15298,11 @@
       <c r="S226" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>1</v>
       </c>
@@ -14610,8 +15358,11 @@
       <c r="S227" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>1</v>
       </c>
@@ -14667,8 +15418,11 @@
       <c r="S228" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>1</v>
       </c>
@@ -14724,8 +15478,11 @@
       <c r="S229" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>1</v>
       </c>
@@ -14781,8 +15538,11 @@
       <c r="S230" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="231" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>1</v>
       </c>
@@ -14838,8 +15598,11 @@
       <c r="S231" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="232" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>1</v>
       </c>
@@ -14895,8 +15658,11 @@
       <c r="S232" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="233" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>1</v>
       </c>
@@ -14952,8 +15718,11 @@
       <c r="S233" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>1</v>
       </c>
@@ -15009,8 +15778,11 @@
       <c r="S234" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>1</v>
       </c>
@@ -15066,8 +15838,11 @@
       <c r="S235" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="236" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>1</v>
       </c>
@@ -15123,8 +15898,11 @@
       <c r="S236" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="237" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>1</v>
       </c>
@@ -15180,8 +15958,11 @@
       <c r="S237" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="238" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>1</v>
       </c>
@@ -15237,8 +16018,11 @@
       <c r="S238" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="239" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>1</v>
       </c>
@@ -15294,8 +16078,11 @@
       <c r="S239" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>1</v>
       </c>
@@ -15351,8 +16138,11 @@
       <c r="S240" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="241" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>1</v>
       </c>
@@ -15408,8 +16198,11 @@
       <c r="S241" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="242" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>1</v>
       </c>
@@ -15465,8 +16258,11 @@
       <c r="S242" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>1</v>
       </c>
@@ -15522,8 +16318,11 @@
       <c r="S243" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="244" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>1</v>
       </c>
@@ -15579,8 +16378,11 @@
       <c r="S244" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>1</v>
       </c>
@@ -15636,8 +16438,11 @@
       <c r="S245" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="246" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>1</v>
       </c>
@@ -15693,8 +16498,11 @@
       <c r="S246" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="247" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>1</v>
       </c>
@@ -15750,8 +16558,11 @@
       <c r="S247" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="248" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>1</v>
       </c>
@@ -15807,8 +16618,11 @@
       <c r="S248" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>1</v>
       </c>
@@ -15864,8 +16678,11 @@
       <c r="S249" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="250" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>1</v>
       </c>
@@ -15921,8 +16738,11 @@
       <c r="S250" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="251" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>1</v>
       </c>
@@ -15978,8 +16798,11 @@
       <c r="S251" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="252" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>1</v>
       </c>
@@ -16035,8 +16858,11 @@
       <c r="S252" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="253" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>1</v>
       </c>
@@ -16092,8 +16918,11 @@
       <c r="S253" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="254" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>1</v>
       </c>
@@ -16149,8 +16978,11 @@
       <c r="S254" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="255" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>1</v>
       </c>
@@ -16206,8 +17038,11 @@
       <c r="S255" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="256" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>1</v>
       </c>
@@ -16263,8 +17098,11 @@
       <c r="S256" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="257" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>1</v>
       </c>
@@ -16318,6 +17156,9 @@
         <v>13</v>
       </c>
       <c r="S257" t="s">
+        <v>13</v>
+      </c>
+      <c r="T257" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16334,8 +17175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629E1569-5D69-450B-8C10-119B8F3CDC81}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16364,37 +17205,40 @@
       <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>79</v>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
-        <v>0000</v>
+        <v>00000</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(D2),"h")</f>
         <v>0h</v>
       </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
+      <c r="B3" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(B3,C3)</f>
-        <v>0001</v>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D22" si="0">_xlfn.CONCAT(B3,C3)</f>
+        <v>00001</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E17" si="1">_xlfn.CONCAT(BIN2HEX(D3),"h")</f>
+        <f t="shared" ref="E3:E22" si="1">_xlfn.CONCAT(BIN2HEX(D3),"h")</f>
         <v>1h</v>
       </c>
     </row>
@@ -16402,15 +17246,15 @@
       <c r="A4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0010</v>
+        <v>00010</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -16421,15 +17265,15 @@
       <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>79</v>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0011</v>
+        <v>00011</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -16440,34 +17284,37 @@
       <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0100</v>
+        <v>00100</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
         <v>4h</v>
       </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
+      <c r="B7" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0101</v>
+        <v>00101</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -16478,15 +17325,15 @@
       <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0110</v>
+        <v>00110</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -16500,15 +17347,15 @@
       <c r="A9" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+      <c r="B9" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0111</v>
+        <v>00111</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -16519,34 +17366,37 @@
       <c r="A10" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="1">
-        <v>10</v>
+      <c r="B10" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>01000</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>8h</v>
       </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="1">
-        <v>10</v>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1001</v>
+        <v>01001</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -16557,15 +17407,15 @@
       <c r="A12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010</v>
+        <v>01010</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -16576,15 +17426,15 @@
       <c r="A13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="1">
-        <v>10</v>
+      <c r="B13" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011</v>
+        <v>01011</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
@@ -16595,34 +17445,37 @@
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
+      <c r="B14" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>01100</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
         <v>Ch</v>
       </c>
+      <c r="I14" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>81</v>
+      <c r="B15" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1101</v>
+        <v>01101</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -16633,73 +17486,155 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
+      <c r="B16" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>01110</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
         <v>Eh</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1111</v>
+        <v>01111</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
         <v>Fh</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>10h</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10001</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>11h</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10010</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>12h</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10011</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>13h</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10100</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>14h</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432762D5-3AE5-42DA-B03A-A6711F7FC830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808662A1-6230-4A6A-B1C0-D533FC62EE41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9F237107-A645-44AE-968F-504CCB4864C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="ControlPath" sheetId="2" r:id="rId2"/>
-    <sheet name="Registers" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
+    <sheet name="ControlPath" sheetId="2" r:id="rId3"/>
+    <sheet name="Registers" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="241">
   <si>
     <t>Instruction</t>
   </si>
@@ -579,6 +580,177 @@
   </si>
   <si>
     <t>Registrador que guarda o endereço da rotina</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jz</t>
+  </si>
+  <si>
+    <t>jn</t>
+  </si>
+  <si>
+    <t>jsr</t>
+  </si>
+  <si>
+    <t>jump (incondicional)</t>
+  </si>
+  <si>
+    <t>jump if zero</t>
+  </si>
+  <si>
+    <t>jump if negative</t>
+  </si>
+  <si>
+    <t>jump to subroutine</t>
+  </si>
+  <si>
+    <t>j label</t>
+  </si>
+  <si>
+    <t>label jz reg</t>
+  </si>
+  <si>
+    <t>label if reg zero</t>
+  </si>
+  <si>
+    <t>label whenzero reg</t>
+  </si>
+  <si>
+    <t>label :zero reg</t>
+  </si>
+  <si>
+    <t>label if reg negative</t>
+  </si>
+  <si>
+    <t>label whennegative reg</t>
+  </si>
+  <si>
+    <t>label :neg reg</t>
+  </si>
+  <si>
+    <t>call fib</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>[fib]:</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>shoot label</t>
+  </si>
+  <si>
+    <t>run label</t>
+  </si>
+  <si>
+    <t>bring label</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>soma:</t>
+  </si>
+  <si>
+    <t>regA + 4</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>blink soma</t>
+  </si>
+  <si>
+    <t>blink</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>:zero</t>
+  </si>
+  <si>
+    <t>:neg</t>
+  </si>
+  <si>
+    <t>When Zero</t>
+  </si>
+  <si>
+    <t>When Negative</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>?zero</t>
+  </si>
+  <si>
+    <t>?neg</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt; fib</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>signaler</t>
+  </si>
+  <si>
+    <t>label ?zero flare</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>flareB</t>
+  </si>
+  <si>
+    <t>flareC</t>
+  </si>
+  <si>
+    <t>flareD</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>label ?zero neg</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>@ label</t>
+  </si>
+  <si>
+    <t>&gt; [subroutine]</t>
+  </si>
+  <si>
+    <t>&gt; [fib]</t>
   </si>
 </sst>
 </file>
@@ -620,18 +792,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD9DA5A-DB52-4BF8-8CF7-0B848F68A355}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,13 +1147,13 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="2" t="s">
         <v>78</v>
       </c>
@@ -988,10 +1163,10 @@
       <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="6"/>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -1003,13 +1178,13 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="2" t="s">
         <v>79</v>
       </c>
@@ -1019,11 +1194,11 @@
       <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="6" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(H2:J2))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1032,13 +1207,13 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
@@ -1048,427 +1223,381 @@
       <c r="J3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K7" si="0">BIN2HEX(_xlfn.CONCAT(H3:J3))</f>
+      <c r="K3" s="6" t="str">
+        <f t="shared" ref="K3:K12" si="0">BIN2HEX(_xlfn.CONCAT(H3:J3))</f>
         <v>8</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="5" t="str">
+      <c r="K4" s="6" t="str">
+        <f t="shared" ref="K4:K8" si="1">BIN2HEX(_xlfn.CONCAT(H4:J4))</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="P4" t="s">
+      <c r="L9" s="6"/>
+      <c r="P9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="P5" t="s">
+      <c r="L10" s="6"/>
+      <c r="P10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="P6" t="s">
+      <c r="L11" s="6"/>
+      <c r="P11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="P7" t="s">
+      <c r="L12" s="6"/>
+      <c r="P12" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f>BIN2HEX(_xlfn.CONCAT(H8:J8))</f>
-        <v>44</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="P8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="str">
-        <f>BIN2HEX(_xlfn.CONCAT(H9,I9,"000"))</f>
-        <v>80</v>
-      </c>
-      <c r="L9" t="str">
-        <f>BIN2HEX(_xlfn.CONCAT(H9,I9,"100"))</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" ref="K10:K17" si="1">BIN2HEX(_xlfn.CONCAT(H10,I10,"000"))</f>
-        <v>88</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L17" si="2">BIN2HEX(_xlfn.CONCAT(H10,I10,"100"))</f>
-        <v>8C</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="2"/>
-        <v>9C</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>A0</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="2"/>
-        <v>A4</v>
+      <c r="K13" s="6" t="str">
+        <f>BIN2HEX(_xlfn.CONCAT(H13:J13))</f>
+        <v>44</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="P13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>C0</v>
+        <f>BIN2HEX(_xlfn.CONCAT(H14,I14,"000"))</f>
+        <v>80</v>
       </c>
       <c r="L14" t="str">
-        <f>BIN2HEX(_xlfn.CONCAT(H14,I14,"001"))</f>
-        <v>C1</v>
+        <f>BIN2HEX(_xlfn.CONCAT(H14,I14,"100"))</f>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>74</v>
@@ -1477,38 +1606,38 @@
         <v>84</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>C8</v>
+        <f t="shared" ref="K15:K22" si="2">BIN2HEX(_xlfn.CONCAT(H15,I15,"000"))</f>
+        <v>88</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="2"/>
-        <v>CC</v>
+        <f t="shared" ref="L15:L22" si="3">BIN2HEX(_xlfn.CONCAT(H15,I15,"100"))</f>
+        <v>8C</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>75</v>
@@ -1517,38 +1646,38 @@
         <v>84</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>D0</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="2"/>
-        <v>D4</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>76</v>
@@ -1557,45 +1686,429 @@
         <v>84</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>A0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>C0</v>
+      </c>
+      <c r="L19" t="str">
+        <f>BIN2HEX(_xlfn.CONCAT(H19,I19,"001"))</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>D0</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
         <v>D8</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
         <v>DC</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
+  <mergeCells count="26">
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9630E279-2088-4D49-9C24-2B2DE653924F}">
+  <dimension ref="A3:N23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="N10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" t="s">
+        <v>210</v>
+      </c>
+      <c r="N12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5BD5E-5DDE-43BD-AA8B-7B03110567C6}">
   <dimension ref="A1:T257"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S68" sqref="S68"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:T257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,16 +2124,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" t="s">
         <v>100</v>
       </c>
@@ -5596,11 +6109,11 @@
         <f t="shared" ref="J67:J130" si="1">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(B67:I67)),"h")</f>
         <v>41h</v>
       </c>
-      <c r="K67" t="s">
-        <v>13</v>
-      </c>
-      <c r="L67" t="s">
-        <v>13</v>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
       </c>
       <c r="M67" t="s">
         <v>13</v>
@@ -5614,11 +6127,11 @@
       <c r="P67" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" t="s">
-        <v>13</v>
-      </c>
-      <c r="R67" t="s">
-        <v>13</v>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
       </c>
       <c r="S67" t="s">
         <v>13</v>
@@ -5803,8 +6316,8 @@
       <c r="P70" t="s">
         <v>13</v>
       </c>
-      <c r="Q70" t="s">
-        <v>13</v>
+      <c r="Q70">
+        <v>1</v>
       </c>
       <c r="R70" t="s">
         <v>13</v>
@@ -17171,12 +17684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629E1569-5D69-450B-8C10-119B8F3CDC81}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17205,7 +17718,7 @@
       <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -17227,18 +17740,18 @@
       <c r="A3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D22" si="0">_xlfn.CONCAT(B3,C3)</f>
+        <f t="shared" ref="D3:D27" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>00001</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E22" si="1">_xlfn.CONCAT(BIN2HEX(D3),"h")</f>
+        <f t="shared" ref="E3:E27" si="1">_xlfn.CONCAT(BIN2HEX(D3),"h")</f>
         <v>1h</v>
       </c>
     </row>
@@ -17246,7 +17759,7 @@
       <c r="A4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="1">
@@ -17265,7 +17778,7 @@
       <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="1">
@@ -17284,7 +17797,7 @@
       <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -17306,7 +17819,7 @@
       <c r="A7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -17325,7 +17838,7 @@
       <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -17347,7 +17860,7 @@
       <c r="A9" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -17366,7 +17879,7 @@
       <c r="A10" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -17388,7 +17901,7 @@
       <c r="A11" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -17407,7 +17920,7 @@
       <c r="A12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -17426,7 +17939,7 @@
       <c r="A13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -17445,7 +17958,7 @@
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -17467,7 +17980,7 @@
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -17486,7 +17999,7 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -17505,7 +18018,7 @@
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -17524,7 +18037,7 @@
       <c r="A18" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -17546,7 +18059,7 @@
       <c r="A19" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -17565,7 +18078,7 @@
       <c r="A20" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -17584,7 +18097,7 @@
       <c r="A21" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -17601,37 +18114,128 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="1" t="str">
+        <f t="shared" ref="D22:D25" si="2">_xlfn.CONCAT(B22,C22)</f>
+        <v>10100</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:E25" si="3">_xlfn.CONCAT(BIN2HEX(D22),"h")</f>
+        <v>14h</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10101</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>15h</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10110</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>16h</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10111</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>17h</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10100</v>
-      </c>
-      <c r="E22" t="str">
+        <v>11000</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>14h</v>
-      </c>
-      <c r="I22" t="s">
+        <v>18h</v>
+      </c>
+      <c r="I26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>11111</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>1Fh</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
